--- a/biology/Botanique/Heliamphora_heterodoxa/Heliamphora_heterodoxa.xlsx
+++ b/biology/Botanique/Heliamphora_heterodoxa/Heliamphora_heterodoxa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliamphora heterodoxa est une espèce de plantes à fleurs de la famille des Sarraceniaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est originaire du Ptari Tepuy, dans la formation de Gran Sabana, en Amérique du Sud.
 La forme heterodoxa var. glabra, naturellement répartie sur la 'Sierra do sol', a été renommée Heliamphora glabra en 2005. heterodoxa var. exappendiculata, du Chimanta Tepuy, est devenue Heliamphora exappendiculata en 2006.
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliamphora heterodoxa fut découverte en 1951 par Julian Steyermark sur le Ptari tepuy. La forme de la 'Gran sabana' est de découverte plus récente.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ascidies d' Heliamphora heterodoxa sont assez grandes, pouvant atteindre 35cm. La cuillère à nectar qui surmonte les urnes est de grande taille en comparaison avec d'autres espèces du genre, et est colorée de rouge dans de bonnes conditions de luminosité. Celle-ci produit de grandes quantités de nectar destiné à attirer les insectes. Les hampes florales s'élèvent à 60cm et portent chacune de 3 à 5 fleurs blanches, devenant roses puis rouges avec l'âge. 
 La forme type est celle provenant du Ptari Tepuy. Ses ascidies sont plus rectilignes et elle se colorent facilement de rouge si la luminosité le permet. La cuillère à nectar se trouve dans le prolongement de l'ascidie, mais reste aisément reconnaissable.
